--- a/validation/Kpcoeff_RR.xlsx
+++ b/validation/Kpcoeff_RR.xlsx
@@ -6,13 +6,14 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t xml:space="preserve">compound</t>
   </si>
@@ -141,6 +142,96 @@
   </si>
   <si>
     <t xml:space="preserve">Verapamil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alfentanil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alprazolam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cefazolin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chlordiazepoxide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cyclosporine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diazepam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dideoxyinosine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digoxin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethoxybenzamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flunitrazepam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ftorafur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heptyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hexyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Midazolam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Octyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Penicillin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pentyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenobarbital</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenytoin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propyl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salicyclic acid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tenoxicam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thiopental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tolbutamide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Triazolam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valproate</t>
   </si>
 </sst>
 </file>
@@ -185,6 +276,52 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:N30" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N30"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="compound"/>
+    <tableColumn id="2" name="Kpad"/>
+    <tableColumn id="3" name="Kpbo"/>
+    <tableColumn id="4" name="Kpbr"/>
+    <tableColumn id="5" name="Kpgu"/>
+    <tableColumn id="6" name="Kphe"/>
+    <tableColumn id="7" name="Kpki"/>
+    <tableColumn id="8" name="Kpli"/>
+    <tableColumn id="9" name="Kplu"/>
+    <tableColumn id="10" name="Kpmu"/>
+    <tableColumn id="11" name="Kppa"/>
+    <tableColumn id="12" name="Kpsk"/>
+    <tableColumn id="13" name="Kpsp"/>
+    <tableColumn id="14" name="Kpth"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:N31" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:N31"/>
+  <tableColumns count="14">
+    <tableColumn id="1" name="compound"/>
+    <tableColumn id="2" name="Kpad"/>
+    <tableColumn id="3" name="Kpbo"/>
+    <tableColumn id="4" name="Kpbr"/>
+    <tableColumn id="5" name="Kpgu"/>
+    <tableColumn id="6" name="Kphe"/>
+    <tableColumn id="7" name="Kpki"/>
+    <tableColumn id="8" name="Kpli"/>
+    <tableColumn id="9" name="Kplu"/>
+    <tableColumn id="10" name="Kpmu"/>
+    <tableColumn id="11" name="Kppa"/>
+    <tableColumn id="12" name="Kpsk"/>
+    <tableColumn id="13" name="Kpsp"/>
+    <tableColumn id="14" name="Kpth"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1795,5 +1932,1389 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" t="n">
+        <v>10.14</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>6.81</v>
+      </c>
+      <c r="E2" t="n">
+        <v>7.94</v>
+      </c>
+      <c r="F2" t="n">
+        <v>4.51</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="I2" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="J2" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K2" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="L2" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.72</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="I3" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="K3" t="n">
+        <v>9.61</v>
+      </c>
+      <c r="L3" t="n">
+        <v>13.28</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="N3" t="n">
+        <v>4.82</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="K4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="n">
+        <v>18.44</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.91</v>
+      </c>
+      <c r="E6" t="n">
+        <v>12.02</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5.91</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="H6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8.33</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="L6" t="n">
+        <v>17.43</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="N6" t="n">
+        <v>6.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" t="n">
+        <v>66.03</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="D7" t="n">
+        <v>32.48</v>
+      </c>
+      <c r="E7" t="n">
+        <v>35.19</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15.98</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="H7" t="n">
+        <v>19.03</v>
+      </c>
+      <c r="I7" t="n">
+        <v>22.81</v>
+      </c>
+      <c r="J7" t="n">
+        <v>10.94</v>
+      </c>
+      <c r="K7" t="n">
+        <v>36.11</v>
+      </c>
+      <c r="L7" t="n">
+        <v>50.24</v>
+      </c>
+      <c r="M7" t="n">
+        <v>11.45</v>
+      </c>
+      <c r="N7" t="n">
+        <v>17.15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" t="n">
+        <v>50.85</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11.94</v>
+      </c>
+      <c r="D8" t="n">
+        <v>25.89</v>
+      </c>
+      <c r="E8" t="n">
+        <v>27.81</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="H8" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="I8" t="n">
+        <v>18.04</v>
+      </c>
+      <c r="J8" t="n">
+        <v>8.71</v>
+      </c>
+      <c r="K8" t="n">
+        <v>28.68</v>
+      </c>
+      <c r="L8" t="n">
+        <v>40.59</v>
+      </c>
+      <c r="M8" t="n">
+        <v>8.22</v>
+      </c>
+      <c r="N8" t="n">
+        <v>13.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="n">
+        <v>8.65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="E13" t="n">
+        <v>6.44</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="H13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K13" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="L13" t="n">
+        <v>9.13</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="N13" t="n">
+        <v>3.47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.81</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" t="n">
+        <v>131.02</v>
+      </c>
+      <c r="C15" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="D15" t="n">
+        <v>57.47</v>
+      </c>
+      <c r="E15" t="n">
+        <v>61.89</v>
+      </c>
+      <c r="F15" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="G15" t="n">
+        <v>29.51</v>
+      </c>
+      <c r="H15" t="n">
+        <v>31.79</v>
+      </c>
+      <c r="I15" t="n">
+        <v>39.77</v>
+      </c>
+      <c r="J15" t="n">
+        <v>18.66</v>
+      </c>
+      <c r="K15" t="n">
+        <v>63.79</v>
+      </c>
+      <c r="L15" t="n">
+        <v>90.99</v>
+      </c>
+      <c r="M15" t="n">
+        <v>17.52</v>
+      </c>
+      <c r="N15" t="n">
+        <v>29.65</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="C16" t="n">
+        <v>8.05</v>
+      </c>
+      <c r="D16" t="n">
+        <v>17.39</v>
+      </c>
+      <c r="E16" t="n">
+        <v>18.71</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.47</v>
+      </c>
+      <c r="G16" t="n">
+        <v>9.17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="I16" t="n">
+        <v>12.22</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5.94</v>
+      </c>
+      <c r="K16" t="n">
+        <v>19.25</v>
+      </c>
+      <c r="L16" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="n">
+        <v>105.67</v>
+      </c>
+      <c r="C18" t="n">
+        <v>22.94</v>
+      </c>
+      <c r="D18" t="n">
+        <v>49.19</v>
+      </c>
+      <c r="E18" t="n">
+        <v>53.35</v>
+      </c>
+      <c r="F18" t="n">
+        <v>23.78</v>
+      </c>
+      <c r="G18" t="n">
+        <v>25.77</v>
+      </c>
+      <c r="H18" t="n">
+        <v>27.54</v>
+      </c>
+      <c r="I18" t="n">
+        <v>34.79</v>
+      </c>
+      <c r="J18" t="n">
+        <v>16.32</v>
+      </c>
+      <c r="K18" t="n">
+        <v>54.61</v>
+      </c>
+      <c r="L18" t="n">
+        <v>78.45</v>
+      </c>
+      <c r="M18" t="n">
+        <v>15.49</v>
+      </c>
+      <c r="N18" t="n">
+        <v>25.69</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1020.79</v>
+      </c>
+      <c r="C19" t="n">
+        <v>166.29</v>
+      </c>
+      <c r="D19" t="n">
+        <v>359.85</v>
+      </c>
+      <c r="E19" t="n">
+        <v>389.62</v>
+      </c>
+      <c r="F19" t="n">
+        <v>169.67</v>
+      </c>
+      <c r="G19" t="n">
+        <v>184.81</v>
+      </c>
+      <c r="H19" t="n">
+        <v>198.62</v>
+      </c>
+      <c r="I19" t="n">
+        <v>250.84</v>
+      </c>
+      <c r="J19" t="n">
+        <v>115.41</v>
+      </c>
+      <c r="K19" t="n">
+        <v>399.92</v>
+      </c>
+      <c r="L19" t="n">
+        <v>575.58</v>
+      </c>
+      <c r="M19" t="n">
+        <v>108.54</v>
+      </c>
+      <c r="N19" t="n">
+        <v>184.78</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="n">
+        <v>471.99</v>
+      </c>
+      <c r="C20" t="n">
+        <v>81.94</v>
+      </c>
+      <c r="D20" t="n">
+        <v>179.93</v>
+      </c>
+      <c r="E20" t="n">
+        <v>193.1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>82.89</v>
+      </c>
+      <c r="G20" t="n">
+        <v>90.9</v>
+      </c>
+      <c r="H20" t="n">
+        <v>98.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>122.69</v>
+      </c>
+      <c r="J20" t="n">
+        <v>57.14</v>
+      </c>
+      <c r="K20" t="n">
+        <v>199.82</v>
+      </c>
+      <c r="L20" t="n">
+        <v>284.37</v>
+      </c>
+      <c r="M20" t="n">
+        <v>53.2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>91.75</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L21" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8.83</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="D22" t="n">
+        <v>5.74</v>
+      </c>
+      <c r="E22" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L22" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.26</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" t="n">
+        <v>21.08</v>
+      </c>
+      <c r="C24" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>11.99</v>
+      </c>
+      <c r="E24" t="n">
+        <v>13.01</v>
+      </c>
+      <c r="F24" t="n">
+        <v>6.17</v>
+      </c>
+      <c r="G24" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="I24" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="J24" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="K24" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>18.85</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="N24" t="n">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.94</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="L26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="n">
+        <v>7.95</v>
+      </c>
+      <c r="C27" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="D27" t="n">
+        <v>6.66</v>
+      </c>
+      <c r="E27" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="F27" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="G27" t="n">
+        <v>9.79</v>
+      </c>
+      <c r="H27" t="n">
+        <v>7.38</v>
+      </c>
+      <c r="I27" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="J27" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K27" t="n">
+        <v>7.71</v>
+      </c>
+      <c r="L27" t="n">
+        <v>21.47</v>
+      </c>
+      <c r="M27" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="n">
+        <v>36.79</v>
+      </c>
+      <c r="C28" t="n">
+        <v>8.66</v>
+      </c>
+      <c r="D28" t="n">
+        <v>18.35</v>
+      </c>
+      <c r="E28" t="n">
+        <v>19.99</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="G28" t="n">
+        <v>9.88</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10.45</v>
+      </c>
+      <c r="I28" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="J28" t="n">
+        <v>6.32</v>
+      </c>
+      <c r="K28" t="n">
+        <v>20.33</v>
+      </c>
+      <c r="L28" t="n">
+        <v>29.27</v>
+      </c>
+      <c r="M28" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="L29" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="n">
+        <v>18.33</v>
+      </c>
+      <c r="C30" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="D30" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="E30" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="F30" t="n">
+        <v>5.43</v>
+      </c>
+      <c r="G30" t="n">
+        <v>5.86</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="I30" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="K30" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.56</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>